--- a/Excel/BaseProjetos.xlsx
+++ b/Excel/BaseProjetos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF91156-1BBF-48E6-8792-3C33AFDE3A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE609AB-30C6-45CB-AF94-77F5697A9000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -7938,41 +7938,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8434,13 +8399,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -8453,6 +8411,48 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -8469,20 +8469,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{334B889E-DB29-45F7-999E-5EC17BE5A2C6}" name="Tabela1" displayName="Tabela1" ref="A1:K2499" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{334B889E-DB29-45F7-999E-5EC17BE5A2C6}" name="Tabela1" displayName="Tabela1" ref="A1:K2499" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:K2499" xr:uid="{5C6A13AB-79D7-45B2-AAB9-1715ED89FBD4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B94D255B-1951-4B9F-9F6C-489DE7397CDE}" name="Código Projeto" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AD9B4F66-AB66-4857-A022-43E8BB83E1B8}" name="Setor" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FFD30DA0-8267-495E-9893-38477D1667F7}" name="Região" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{7A433B06-71E8-4A7D-B6DF-CA5B1569600F}" name="Valor Orçado" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8AB9B70F-7775-4ADE-876B-CA851456BF8C}" name="Valor Negociado" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{66383C1D-CDB7-4E52-9AB9-389700668343}" name="Data Ativação Lead" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B6F727B5-8244-4359-8DC8-C2CB0AB29231}" name="Data Início" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{82CB6DA2-79A2-4401-B47F-F291D50DB7FF}" name="Data Termino" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A2973A3A-904D-4EE5-8688-2179EC294415}" name="Nome" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{D3AE5FA8-9065-456B-8D6C-E97937051854}" name="Sobrenome" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7411500E-1DB9-4A46-8522-40A737F219C0}" name="Status" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B94D255B-1951-4B9F-9F6C-489DE7397CDE}" name="Código Projeto" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AD9B4F66-AB66-4857-A022-43E8BB83E1B8}" name="Setor" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{FFD30DA0-8267-495E-9893-38477D1667F7}" name="Região" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7A433B06-71E8-4A7D-B6DF-CA5B1569600F}" name="Valor Orçado" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8AB9B70F-7775-4ADE-876B-CA851456BF8C}" name="Valor Negociado" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{66383C1D-CDB7-4E52-9AB9-389700668343}" name="Data Ativação Lead" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B6F727B5-8244-4359-8DC8-C2CB0AB29231}" name="Data Início" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{82CB6DA2-79A2-4401-B47F-F291D50DB7FF}" name="Data Termino" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{A2973A3A-904D-4EE5-8688-2179EC294415}" name="Nome" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{D3AE5FA8-9065-456B-8D6C-E97937051854}" name="Sobrenome" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{7411500E-1DB9-4A46-8522-40A737F219C0}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8753,8 +8753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2499"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1666" workbookViewId="0">
+      <selection activeCell="E1661" sqref="E1661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
